--- a/datos_fbref/CARTELERA_PROXIMOS_Ligue_1.xlsx
+++ b/datos_fbref/CARTELERA_PROXIMOS_Ligue_1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L142"/>
+  <dimension ref="A1:L141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -799,34 +799,34 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>20:45 (16:45)</t>
+          <t>17:00 (13:00)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Stade Francis-Le Blé</t>
+          <t>Stade Bollaert-Delelis</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -855,24 +855,24 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>17:00 (13:00)</t>
+          <t>19:00 (15:00)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Stade Bollaert-Delelis</t>
+          <t>Stadium de Toulouse</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -901,24 +901,24 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>19:00 (15:00)</t>
+          <t>21:05 (17:05)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Paris Saint-Germain</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Stadium de Toulouse</t>
+          <t>Parc des Princes</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -937,34 +937,34 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>21:05 (17:05)</t>
+          <t>15:00 (11:00)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Paris Saint-Germain</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Parc des Princes</t>
+          <t>Stade de l'Abbé Deschamps</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -993,24 +993,24 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>15:00 (11:00)</t>
+          <t>17:15 (13:15)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Stade de l'Abbé Deschamps</t>
+          <t>Stade Raymond Kopa</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -1044,19 +1044,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Stade Raymond Kopa</t>
+          <t>Allianz Riviera</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -1090,19 +1090,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Allianz Riviera</t>
+          <t>Stade de la Beaujoire - Louis Fonteneau</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -1131,24 +1131,24 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>17:15 (13:15)</t>
+          <t>20:45 (16:45)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Stade de la Beaujoire - Louis Fonteneau</t>
+          <t>Stade de la Meinau</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -1160,63 +1160,63 @@
       <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>2026-02-22</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>20:45 (16:45)</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>Strasbourg</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Lyon</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
         <is>
           <t>Stade de la Meinau</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -1227,34 +1227,34 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>20:45 (16:45)</t>
+          <t>17:00 (13:00)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Stade de la Meinau</t>
+          <t>Roazhon Park</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -1283,24 +1283,24 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>17:00 (13:00)</t>
+          <t>19:00 (15:00)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Roazhon Park</t>
+          <t>Stade Louis II</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -1329,24 +1329,24 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>19:00 (15:00)</t>
+          <t>21:05 (17:05)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Paris Saint-Germain</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Stade Louis II</t>
+          <t>Stade Océane</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -1365,34 +1365,34 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2026-02-28</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>21:05 (17:05)</t>
+          <t>15:00 (11:00)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Paris Saint-Germain</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Stade Océane</t>
+          <t>Stade Jean-Bouin</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -1421,24 +1421,24 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>15:00 (11:00)</t>
+          <t>17:15 (13:15)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Stade Jean-Bouin</t>
+          <t>Stade Yves Allainmat</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -1472,19 +1472,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Stade Yves Allainmat</t>
+          <t>Stade Saint-Symphorien</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -1518,19 +1518,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Stade Saint-Symphorien</t>
+          <t>Decathlon Arena - Stade Pierre-Mauroy</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -1559,24 +1559,24 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>17:15 (13:15)</t>
+          <t>20:45 (16:45)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Decathlon Arena - Stade Pierre-Mauroy</t>
+          <t>Orange Vélodrome</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -1588,63 +1588,63 @@
       <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>2026-03-01</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>20:45 (16:45)</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Marseille</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Lyon</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Orange Vélodrome</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Paris Saint-Germain</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Parc des Princes</t>
+        </is>
+      </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
@@ -1655,34 +1655,34 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2026-03-06</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>20:45 (16:45)</t>
+          <t>17:00 (13:00)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Paris Saint-Germain</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Parc des Princes</t>
+          <t>Stade de la Beaujoire - Louis Fonteneau</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -1711,24 +1711,24 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>17:00 (13:00)</t>
+          <t>19:00 (15:00)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Stade de la Beaujoire - Louis Fonteneau</t>
+          <t>Stade de l'Abbé Deschamps</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -1757,24 +1757,24 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>19:00 (15:00)</t>
+          <t>21:05 (17:05)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Stade de l'Abbé Deschamps</t>
+          <t>Stadium de Toulouse</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -1793,34 +1793,34 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-03-08</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>21:05 (17:05)</t>
+          <t>15:00 (11:00)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Stadium de Toulouse</t>
+          <t>Stade Bollaert-Delelis</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -1849,24 +1849,24 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>15:00 (11:00)</t>
+          <t>17:15 (13:15)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Stade Bollaert-Delelis</t>
+          <t>Decathlon Arena - Stade Pierre-Mauroy</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -1900,19 +1900,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Decathlon Arena - Stade Pierre-Mauroy</t>
+          <t>Allianz Riviera</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -1946,19 +1946,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Allianz Riviera</t>
+          <t>Stade Francis-Le Blé</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -1987,24 +1987,24 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>17:15 (13:15)</t>
+          <t>20:45 (16:45)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Stade Francis-Le Blé</t>
+          <t>Groupama Stadium</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -2016,63 +2016,59 @@
       <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>2026-03-08</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>20:45 (16:45)</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Lyon</t>
-        </is>
-      </c>
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Paris FC</t>
-        </is>
-      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Groupama Stadium</t>
-        </is>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr"/>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2026-03-15</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
       <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Roazhon Park</t>
+        </is>
+      </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
@@ -2094,19 +2090,19 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Roazhon Park</t>
+          <t>Stade Raymond Kopa</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -2136,19 +2132,19 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Paris Saint-Germain</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Stade Raymond Kopa</t>
+          <t>Parc des Princes</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -2178,19 +2174,19 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Paris Saint-Germain</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Parc des Princes</t>
+          <t>Stade Yves Allainmat</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -2220,19 +2216,19 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Stade Yves Allainmat</t>
+          <t>Orange Vélodrome</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -2262,19 +2258,19 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Orange Vélodrome</t>
+          <t>Stade Océane</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -2304,19 +2300,19 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Stade Océane</t>
+          <t>Stade Saint-Symphorien</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -2346,19 +2342,19 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Stade Saint-Symphorien</t>
+          <t>Stade de la Meinau</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -2388,19 +2384,19 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Stade de la Meinau</t>
+          <t>Stade Louis II</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -2412,59 +2408,59 @@
       <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>2026-03-15</t>
-        </is>
-      </c>
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Monaco</t>
-        </is>
-      </c>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Brest</t>
-        </is>
-      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>Stade Louis II</t>
-        </is>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr"/>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2026-03-22</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
       <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Orange Vélodrome</t>
+        </is>
+      </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
@@ -2486,19 +2482,19 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Orange Vélodrome</t>
+          <t>Groupama Stadium</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -2528,19 +2524,19 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Paris Saint-Germain</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Groupama Stadium</t>
+          <t>Allianz Riviera</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -2570,19 +2566,19 @@
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Paris Saint-Germain</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Allianz Riviera</t>
+          <t>Roazhon Park</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -2612,19 +2608,19 @@
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Roazhon Park</t>
+          <t>Stade de l'Abbé Deschamps</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -2654,19 +2650,19 @@
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Stade de l'Abbé Deschamps</t>
+          <t>Stade de la Beaujoire - Louis Fonteneau</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -2696,19 +2692,19 @@
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Stade de la Beaujoire - Louis Fonteneau</t>
+          <t>Stade Jean-Bouin</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -2738,19 +2734,19 @@
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Stade Jean-Bouin</t>
+          <t>Stade Bollaert-Delelis</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -2780,19 +2776,19 @@
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Stade Bollaert-Delelis</t>
+          <t>Stadium de Toulouse</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -2804,59 +2800,59 @@
       <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>2026-03-22</t>
-        </is>
-      </c>
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Toulouse</t>
-        </is>
-      </c>
+      <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Lorient</t>
-        </is>
-      </c>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>Stadium de Toulouse</t>
-        </is>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr"/>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2026-04-05</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
       <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Stade Océane</t>
+        </is>
+      </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
@@ -2878,19 +2874,19 @@
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Stade Océane</t>
+          <t>Decathlon Arena - Stade Pierre-Mauroy</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -2920,19 +2916,19 @@
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Decathlon Arena - Stade Pierre-Mauroy</t>
+          <t>Stade Louis II</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -2962,19 +2958,19 @@
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Paris Saint-Germain</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Stade Louis II</t>
+          <t>Parc des Princes</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -3004,19 +3000,19 @@
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Paris Saint-Germain</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Parc des Princes</t>
+          <t>Stade Yves Allainmat</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -3046,19 +3042,19 @@
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Stade Yves Allainmat</t>
+          <t>Stade Francis-Le Blé</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -3088,19 +3084,19 @@
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Stade Francis-Le Blé</t>
+          <t>Stade de la Meinau</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -3130,19 +3126,19 @@
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Stade de la Meinau</t>
+          <t>Stade Saint-Symphorien</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -3172,19 +3168,19 @@
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Stade Saint-Symphorien</t>
+          <t>Stade Raymond Kopa</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -3196,59 +3192,59 @@
       <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>2026-04-05</t>
-        </is>
-      </c>
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Angers</t>
-        </is>
-      </c>
+      <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Lyon</t>
-        </is>
-      </c>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>Stade Raymond Kopa</t>
-        </is>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr"/>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2026-04-12</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
       <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Stadium de Toulouse</t>
+        </is>
+      </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
@@ -3270,19 +3266,19 @@
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Stadium de Toulouse</t>
+          <t>Stade Francis-Le Blé</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -3312,19 +3308,19 @@
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Stade Francis-Le Blé</t>
+          <t>Stade Jean-Bouin</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -3354,19 +3350,19 @@
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Stade Jean-Bouin</t>
+          <t>Roazhon Park</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -3396,19 +3392,19 @@
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Paris Saint-Germain</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Roazhon Park</t>
+          <t>Stade Bollaert-Delelis</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -3438,19 +3434,19 @@
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Paris Saint-Germain</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Stade Bollaert-Delelis</t>
+          <t>Groupama Stadium</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -3480,19 +3476,19 @@
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Groupama Stadium</t>
+          <t>Stade de l'Abbé Deschamps</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -3522,19 +3518,19 @@
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Stade de l'Abbé Deschamps</t>
+          <t>Allianz Riviera</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -3564,19 +3560,19 @@
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Allianz Riviera</t>
+          <t>Orange Vélodrome</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -3588,59 +3584,59 @@
       <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>2026-04-12</t>
-        </is>
-      </c>
+      <c r="A92" t="inlineStr"/>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Marseille</t>
-        </is>
-      </c>
+      <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr">
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2026-04-19</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
         <is>
           <t>Metz</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>Orange Vélodrome</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr"/>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Paris FC</t>
+        </is>
+      </c>
       <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Stade Saint-Symphorien</t>
+        </is>
+      </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
@@ -3662,19 +3658,19 @@
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Stade Saint-Symphorien</t>
+          <t>Stade Louis II</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -3704,19 +3700,19 @@
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Paris Saint-Germain</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Stade Louis II</t>
+          <t>Parc des Princes</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -3746,19 +3742,19 @@
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Paris Saint-Germain</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Parc des Princes</t>
+          <t>Stade de la Beaujoire - Louis Fonteneau</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -3788,19 +3784,19 @@
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Stade de la Beaujoire - Louis Fonteneau</t>
+          <t>Stade de la Meinau</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -3830,19 +3826,19 @@
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Stade de la Meinau</t>
+          <t>Stade Bollaert-Delelis</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -3872,19 +3868,19 @@
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Stade Bollaert-Delelis</t>
+          <t>Decathlon Arena - Stade Pierre-Mauroy</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -3914,19 +3910,19 @@
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Decathlon Arena - Stade Pierre-Mauroy</t>
+          <t>Stade Raymond Kopa</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -3956,19 +3952,19 @@
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Stade Raymond Kopa</t>
+          <t>Stade Yves Allainmat</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -3980,59 +3976,59 @@
       <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>2026-04-19</t>
-        </is>
-      </c>
+      <c r="A102" t="inlineStr"/>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Lorient</t>
-        </is>
-      </c>
+      <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr">
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2026-04-26</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
         <is>
           <t>Marseille</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>Stade Yves Allainmat</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr"/>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
       <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Orange Vélodrome</t>
+        </is>
+      </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
@@ -4054,19 +4050,19 @@
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Orange Vélodrome</t>
+          <t>Stade Océane</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -4096,19 +4092,19 @@
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Stade Océane</t>
+          <t>Stade Francis-Le Blé</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -4138,19 +4134,19 @@
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Stade Francis-Le Blé</t>
+          <t>Roazhon Park</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -4180,19 +4176,19 @@
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Roazhon Park</t>
+          <t>Groupama Stadium</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -4222,19 +4218,19 @@
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Groupama Stadium</t>
+          <t>Stadium de Toulouse</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -4264,19 +4260,19 @@
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Stadium de Toulouse</t>
+          <t>Stade Yves Allainmat</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -4306,19 +4302,19 @@
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Stade Yves Allainmat</t>
+          <t>Stade Jean-Bouin</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -4348,19 +4344,19 @@
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Paris Saint-Germain</t>
         </is>
       </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Stade Jean-Bouin</t>
+          <t>Stade Raymond Kopa</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -4372,59 +4368,59 @@
       <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>2026-04-26</t>
-        </is>
-      </c>
+      <c r="A112" t="inlineStr"/>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Angers</t>
-        </is>
-      </c>
+      <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>Paris Saint-Germain</t>
-        </is>
-      </c>
+      <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>Stade Raymond Kopa</t>
-        </is>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr"/>
-      <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr"/>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2026-05-03</t>
+        </is>
+      </c>
       <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
       <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
       <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr"/>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Stade Saint-Symphorien</t>
+        </is>
+      </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
@@ -4446,19 +4442,19 @@
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Stade Saint-Symphorien</t>
+          <t>Decathlon Arena - Stade Pierre-Mauroy</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -4488,19 +4484,19 @@
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Decathlon Arena - Stade Pierre-Mauroy</t>
+          <t>Groupama Stadium</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -4530,19 +4526,19 @@
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Groupama Stadium</t>
+          <t>Stade de l'Abbé Deschamps</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -4572,19 +4568,19 @@
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Paris Saint-Germain</t>
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Stade de l'Abbé Deschamps</t>
+          <t>Parc des Princes</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -4614,19 +4610,19 @@
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Paris Saint-Germain</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Parc des Princes</t>
+          <t>Stade Jean-Bouin</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -4656,19 +4652,19 @@
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Stade Jean-Bouin</t>
+          <t>Allianz Riviera</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -4698,19 +4694,19 @@
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Allianz Riviera</t>
+          <t>Stade de la Beaujoire - Louis Fonteneau</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -4740,19 +4736,19 @@
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Stade de la Beaujoire - Louis Fonteneau</t>
+          <t>Stade de la Meinau</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -4764,59 +4760,63 @@
       <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>2026-05-03</t>
-        </is>
-      </c>
+      <c r="A122" t="inlineStr"/>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Strasbourg</t>
-        </is>
-      </c>
+      <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr">
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2026-05-09</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>21:00 (16:00)</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
         <is>
           <t>Toulouse</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>Stade de la Meinau</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr"/>
-      <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
       <c r="H123" t="inlineStr"/>
-      <c r="I123" t="inlineStr"/>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Stadium de Toulouse</t>
+        </is>
+      </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
@@ -4842,19 +4842,19 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Stadium de Toulouse</t>
+          <t>Stade Bollaert-Delelis</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -4888,19 +4888,19 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Paris Saint-Germain</t>
         </is>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Stade Bollaert-Delelis</t>
+          <t>Parc des Princes</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -4934,19 +4934,19 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Paris Saint-Germain</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Parc des Princes</t>
+          <t>Stade Océane</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -4980,19 +4980,19 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Stade Océane</t>
+          <t>Stade Saint-Symphorien</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -5026,19 +5026,19 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Stade Saint-Symphorien</t>
+          <t>Stade Louis II</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -5072,19 +5072,19 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Stade Louis II</t>
+          <t>Stade Raymond Kopa</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -5118,19 +5118,19 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Stade Raymond Kopa</t>
+          <t>Stade de l'Abbé Deschamps</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
@@ -5164,19 +5164,19 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Stade de l'Abbé Deschamps</t>
+          <t>Roazhon Park</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -5188,63 +5188,63 @@
       <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
+      <c r="A132" t="inlineStr"/>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
         <is>
           <t>Sat</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>2026-05-09</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2026-05-16</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
         <is>
           <t>21:00 (16:00)</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Rennes</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>Paris FC</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr"/>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>Roazhon Park</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
-      <c r="L132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr"/>
-      <c r="B133" t="inlineStr"/>
-      <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr"/>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
       <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
       <c r="H133" t="inlineStr"/>
-      <c r="I133" t="inlineStr"/>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Decathlon Arena - Stade Pierre-Mauroy</t>
+        </is>
+      </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
@@ -5270,19 +5270,19 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Decathlon Arena - Stade Pierre-Mauroy</t>
+          <t>Stade Francis-Le Blé</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -5316,19 +5316,19 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Stade Francis-Le Blé</t>
+          <t>Groupama Stadium</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -5362,19 +5362,19 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Groupama Stadium</t>
+          <t>Stade de la Meinau</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
@@ -5408,19 +5408,19 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Stade de la Meinau</t>
+          <t>Stade de la Beaujoire - Louis Fonteneau</t>
         </is>
       </c>
       <c r="J137" t="inlineStr"/>
@@ -5454,19 +5454,19 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Paris Saint-Germain</t>
         </is>
       </c>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Stade de la Beaujoire - Louis Fonteneau</t>
+          <t>Stade Jean-Bouin</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
@@ -5500,19 +5500,19 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Paris Saint-Germain</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Stade Jean-Bouin</t>
+          <t>Allianz Riviera</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
@@ -5546,19 +5546,19 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Allianz Riviera</t>
+          <t>Orange Vélodrome</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
@@ -5592,19 +5592,19 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Orange Vélodrome</t>
+          <t>Stade Yves Allainmat</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
@@ -5614,52 +5614,6 @@
         </is>
       </c>
       <c r="L141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Sat</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>2026-05-16</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>21:00 (16:00)</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>Lorient</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>Le Havre</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr"/>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>Stade Yves Allainmat</t>
-        </is>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
-      <c r="L142" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
